--- a/Weekly Report/FYP_Qinyuans_Project_implmentaion_Gantt_Chart.xlsx
+++ b/Weekly Report/FYP_Qinyuans_Project_implmentaion_Gantt_Chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\FYP\Weekly Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D1C734-E0CF-4F26-A32D-7B9B8874C0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC5931F-FCDA-418D-A06A-2E770042F638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{E40FBDE4-5042-44B5-BB88-D4D378EC5E41}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E40FBDE4-5042-44B5-BB88-D4D378EC5E41}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="27">
   <si>
     <t>Week</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>Ground work (Background research and learning )</t>
+  </si>
+  <si>
+    <t>FYP_Qinyuans_Project_implmentaion_Gantt_Chart</t>
   </si>
 </sst>
 </file>
@@ -235,7 +238,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -378,11 +381,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -516,6 +528,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -834,10 +849,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U19"/>
+  <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -855,183 +870,146 @@
     <col min="12" max="18" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22"/>
-      <c r="B1" s="23" t="s">
+    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+    </row>
+    <row r="2" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22"/>
+      <c r="B2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-    </row>
-    <row r="2" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3">
-        <v>2</v>
-      </c>
-      <c r="F2" s="3">
-        <v>3</v>
-      </c>
-      <c r="G2" s="3">
-        <v>4</v>
-      </c>
-      <c r="H2" s="3">
-        <v>5</v>
-      </c>
-      <c r="I2" s="3">
-        <v>6</v>
-      </c>
-      <c r="J2" s="3">
-        <v>7</v>
-      </c>
-      <c r="K2" s="3">
-        <v>8</v>
-      </c>
-      <c r="L2" s="3">
-        <v>9</v>
-      </c>
-      <c r="M2" s="3">
-        <v>10</v>
-      </c>
-      <c r="N2" s="3">
-        <v>11</v>
-      </c>
-      <c r="O2" s="3">
-        <v>12</v>
-      </c>
-      <c r="P2" s="1">
-        <v>13</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>14</v>
-      </c>
-      <c r="R2" s="25" t="s">
-        <v>17</v>
-      </c>
+      <c r="C2" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="47"/>
       <c r="S2" s="6"/>
       <c r="T2" s="6"/>
       <c r="U2" s="6"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="24">
+    <row r="3" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="17">
-        <v>0</v>
-      </c>
-      <c r="D3" s="17">
-        <v>0</v>
-      </c>
-      <c r="E3" s="17">
-        <v>0</v>
-      </c>
-      <c r="F3" s="17">
-        <v>0</v>
-      </c>
-      <c r="G3" s="18">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="26" t="s">
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3">
+        <v>4</v>
+      </c>
+      <c r="H3" s="3">
+        <v>5</v>
+      </c>
+      <c r="I3" s="3">
+        <v>6</v>
+      </c>
+      <c r="J3" s="3">
+        <v>7</v>
+      </c>
+      <c r="K3" s="3">
+        <v>8</v>
+      </c>
+      <c r="L3" s="3">
+        <v>9</v>
+      </c>
+      <c r="M3" s="3">
+        <v>10</v>
+      </c>
+      <c r="N3" s="3">
         <v>11</v>
+      </c>
+      <c r="O3" s="3">
+        <v>12</v>
+      </c>
+      <c r="P3" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>14</v>
+      </c>
+      <c r="R3" s="25" t="s">
+        <v>17</v>
       </c>
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
       <c r="U3" s="6"/>
     </row>
-    <row r="4" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="24">
-        <v>2</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
-      <c r="H4" s="8">
-        <v>0</v>
-      </c>
-      <c r="I4" s="8">
-        <v>0</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q4" s="10" t="s">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="17">
+        <v>0</v>
+      </c>
+      <c r="D4" s="17">
+        <v>0</v>
+      </c>
+      <c r="E4" s="17">
+        <v>0</v>
+      </c>
+      <c r="F4" s="17">
+        <v>0</v>
+      </c>
+      <c r="G4" s="18">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
       <c r="R4" s="26" t="s">
         <v>11</v>
       </c>
@@ -1039,12 +1017,12 @@
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
     </row>
-    <row r="5" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>17</v>
@@ -1061,17 +1039,17 @@
       <c r="G5" s="8">
         <v>0</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="8">
         <v>0</v>
       </c>
       <c r="I5" s="8">
         <v>0</v>
       </c>
-      <c r="J5" s="8">
-        <v>0</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>14</v>
+      <c r="J5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -1100,10 +1078,10 @@
     </row>
     <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>17</v>
@@ -1129,8 +1107,8 @@
       <c r="J6" s="8">
         <v>0</v>
       </c>
-      <c r="K6" s="15" t="s">
-        <v>16</v>
+      <c r="K6" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>17</v>
@@ -1159,10 +1137,10 @@
     </row>
     <row r="7" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>17</v>
@@ -1176,34 +1154,34 @@
       <c r="F7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="8">
-        <v>0</v>
-      </c>
-      <c r="L7" s="8">
-        <v>0</v>
-      </c>
-      <c r="M7" s="8">
-        <v>0</v>
-      </c>
-      <c r="N7" s="8">
-        <v>0</v>
-      </c>
-      <c r="O7" s="8">
-        <v>0</v>
-      </c>
-      <c r="P7" s="9" t="s">
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P7" s="10" t="s">
         <v>5</v>
       </c>
       <c r="Q7" s="10" t="s">
@@ -1216,334 +1194,351 @@
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
     </row>
-    <row r="8" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="27">
-        <v>6</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="M8" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="N8" s="30">
-        <v>0</v>
-      </c>
-      <c r="O8" s="30">
-        <v>0</v>
-      </c>
-      <c r="P8" s="31" t="s">
+    <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="24">
         <v>5</v>
       </c>
-      <c r="Q8" s="31" t="s">
+      <c r="B8" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="8">
+        <v>0</v>
+      </c>
+      <c r="L8" s="8">
+        <v>0</v>
+      </c>
+      <c r="M8" s="8">
+        <v>0</v>
+      </c>
+      <c r="N8" s="8">
+        <v>0</v>
+      </c>
+      <c r="O8" s="8">
+        <v>0</v>
+      </c>
+      <c r="P8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="R8" s="32" t="s">
+      <c r="Q8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="R8" s="26" t="s">
         <v>11</v>
       </c>
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
       <c r="U8" s="6"/>
     </row>
-    <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10" s="23" t="s">
+    <row r="9" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="27">
         <v>6</v>
       </c>
-      <c r="C10" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="46"/>
-      <c r="O10" s="46"/>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="46"/>
-      <c r="R10" s="47"/>
-    </row>
-    <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+      <c r="B9" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9" s="30">
+        <v>0</v>
+      </c>
+      <c r="O9" s="30">
+        <v>0</v>
+      </c>
+      <c r="P9" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+    </row>
+    <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="22"/>
+      <c r="B11" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="47"/>
+    </row>
+    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="C12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="3">
         <v>1</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E12" s="3">
         <v>2</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F12" s="3">
         <v>3</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G12" s="3">
         <v>4</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H12" s="3">
         <v>5</v>
       </c>
-      <c r="I11" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="25"/>
-    </row>
-    <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34">
-        <v>1</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="4"/>
       <c r="I12" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="35"/>
-    </row>
-    <row r="13" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="36">
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="25"/>
+    </row>
+    <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="34">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="35"/>
+    </row>
+    <row r="14" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="36">
         <v>2</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B14" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="39">
-        <v>0</v>
-      </c>
-      <c r="I13" s="40" t="s">
+      <c r="C14" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="38"/>
+      <c r="E14" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="39">
+        <v>0</v>
+      </c>
+      <c r="I14" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="41"/>
-    </row>
-    <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="23" t="s">
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="41"/>
+    </row>
+    <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
+      <c r="B16" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="47"/>
-    </row>
-    <row r="16" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
+      <c r="C16" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="47"/>
+    </row>
+    <row r="17" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="3">
+      <c r="C17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="3">
         <v>1</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E17" s="3">
         <v>2</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F17" s="3">
         <v>3</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G17" s="3">
         <v>4</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H17" s="3">
         <v>5</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I17" s="3">
         <v>6</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J17" s="3">
         <v>7</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K17" s="3">
         <v>8</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L17" s="3">
         <v>9</v>
       </c>
-      <c r="M16" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="N16" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="R16" s="42" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="34">
-        <v>1</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="5">
-        <v>0</v>
-      </c>
-      <c r="E17" s="5">
-        <v>0</v>
-      </c>
-      <c r="F17" s="5">
-        <v>0</v>
-      </c>
-      <c r="G17" s="5">
-        <v>0</v>
-      </c>
-      <c r="H17" s="5">
-        <v>0</v>
-      </c>
-      <c r="I17" s="5">
-        <v>0</v>
-      </c>
-      <c r="J17" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="K17" s="12"/>
-      <c r="L17" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="35"/>
+      <c r="M17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="R17" s="42" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>17</v>
@@ -1551,85 +1546,128 @@
       <c r="D18" s="5">
         <v>0</v>
       </c>
-      <c r="E18" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>17</v>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0</v>
+      </c>
+      <c r="I18" s="5">
+        <v>0</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="K18" s="12"/>
       <c r="L18" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M18" s="1"/>
+      <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="25"/>
-    </row>
-    <row r="19" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="36">
+      <c r="Q18" s="4"/>
+      <c r="R18" s="35"/>
+    </row>
+    <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="34">
+        <v>2</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="12"/>
+      <c r="L19" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="M19" s="1"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="25"/>
+    </row>
+    <row r="20" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="36">
         <v>3</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B20" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="39">
-        <v>0</v>
-      </c>
-      <c r="G19" s="39">
-        <v>0</v>
-      </c>
-      <c r="H19" s="43" t="s">
+      <c r="C20" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="39">
+        <v>0</v>
+      </c>
+      <c r="G20" s="39">
+        <v>0</v>
+      </c>
+      <c r="H20" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="I19" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="K19" s="44"/>
-      <c r="L19" s="40" t="s">
+      <c r="I20" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="44"/>
+      <c r="L20" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="M19" s="37"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="41"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C1:R1"/>
-    <mergeCell ref="C10:R10"/>
-    <mergeCell ref="C15:R15"/>
+  <mergeCells count="4">
+    <mergeCell ref="C2:R2"/>
+    <mergeCell ref="C11:R11"/>
+    <mergeCell ref="C16:R16"/>
+    <mergeCell ref="A1:R1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="81" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>